--- a/Task1-feature_generation.xlsx
+++ b/Task1-feature_generation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gowthamkuntumalla/Documents/GitHub/ECE498_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somani4\Documents\GitHub\ECE498_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4CC41-6FD0-DF47-8238-276D7B6C3407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF731B-6C94-41B1-A232-0A5A6F8C06B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="1" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="4" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Akhilesh" sheetId="5" r:id="rId5"/>
     <sheet name="Research" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="201">
   <si>
     <t>ADX/DMS</t>
   </si>
@@ -437,13 +434,558 @@
   </si>
   <si>
     <t>Time frequency</t>
+  </si>
+  <si>
+    <t>Thoughts and Info</t>
+  </si>
+  <si>
+    <t>uses volume and price to assess whether a stock is being accumulated or distributed</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/a/accumulationdistribution.asp</t>
+  </si>
+  <si>
+    <t>measures the time between highs and the time between lows over a time period. The idea is that strong uptrends will regularly see new highs, and strong downtrends will regularly see new lows. </t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/a/aroon.asp</t>
+  </si>
+  <si>
+    <r>
+      <t> Readings above zero indicate that an </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uptrend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is present, while readings below zero indicate that a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>downtrend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is present.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/a/aroonoscillator.asp</t>
+  </si>
+  <si>
+    <t>The principle behind the Chaikin Money Flow is the nearer the closing price is to the high, the more accumulation has taken place. Conversely, the nearer the closing price is to the low, the more distribution has taken place.</t>
+  </si>
+  <si>
+    <t>https://www.fidelity.com/learning-center/trading-investing/technical-analysis/technical-indicator-guide/cmf</t>
+  </si>
+  <si>
+    <r>
+      <t>The Chaikin Volatility Indicator is the difference between two moving averages of a volume weighted accumulation-distribution line. By comparing the spread between a security's high and low prices, it quantifies volatility as a widening of the range between the high and the low price.. Chaikin Volatility should be used in conjunction with a moving average system or price envelopes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.barchart.com/education/technical-indicators/chaikin_volatility</t>
+  </si>
+  <si>
+    <t>calculates the difference between the sum of recent gains and the sum of recent losses and then divides the result by the sum of all price movement over the same period.</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/c/chandemomentumoscillator.asp</t>
+  </si>
+  <si>
+    <t>The Chande Forecast Oscillator plots the percentage difference between the closing price and the n-period linear regression forecasted price. The oscillator is above zero when the forecast price is greater than the closing price and less than zero if it is below.</t>
+  </si>
+  <si>
+    <t>https://library.tradingtechnologies.com/trade/chrt-ti-chande-forecast-oscillator.html</t>
+  </si>
+  <si>
+    <r>
+      <t>(CCI) is a momentum-based </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oscillator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> used to help determine when an </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>investment vehicle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is reaching a condition of being </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>overbought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oversold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It is also used to assess price trend direction and strength. </t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/c/commoditychannelindex.asp</t>
+  </si>
+  <si>
+    <t>Donchian Channels are three lines generated by moving average calculations that comprise an indicator formed by upper and lower bands around a mid-range or median band. The upper band marks the highest price of a security over N periods while the lower band marks the lowest price of a security over N periods. </t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/d/donchianchannels.asp</t>
+  </si>
+  <si>
+    <t>Donchian Channel Width is measuring the distance between Upper and Lower Bands of the Donchian Channel. It is used in technical analysis to measure a security's volatility.</t>
+  </si>
+  <si>
+    <t>It attempts to determine the variability of price data based on the log of the price range over a user-defined n-periods. Gopalakrishnan Range Index intended to measure volatility in a stock or commodity. It does not incorporate volume. The indicator calculates it’s value over a set time period (default 14 periods) using only price action. </t>
+  </si>
+  <si>
+    <t>https://www.stockmaniacs.net/gopalakrishnan-range-index-gapo/</t>
+  </si>
+  <si>
+    <t> there are two bands surrounding the underlying’s price and its generated from the triangular moving averages calculated from the underlying’s price. In this indicator, the triangular moving average is, in turn, shifted up and down by a fixed percentage.</t>
+  </si>
+  <si>
+    <t>https://www.stockmaniacs.net/high-low-bands-indicator/</t>
+  </si>
+  <si>
+    <t>HML accounts for the spread in returns between value stocks and growth stocks and argues that companies with high book-to-market ratios, also known as value stocks, outperform those with lower book-to-market values, known as growth stocks.</t>
+  </si>
+  <si>
+    <t>Highest high value indicator or in short form HHV means that stock has hit an all-time high since it is listed and it indicates that there is big demand at that particular time of that particular stock. In this indicator the default period is 14. The Highest High Value indicator returns the highest high price over a user-defined n-periods.</t>
+  </si>
+  <si>
+    <t>https://www.stockmaniacs.net/highest-high-value-indicator-hhv/</t>
+  </si>
+  <si>
+    <t>A linear regression trendline uses the least squares method to plot a straight line through prices so as to minimize the distances between the prices and the resulting trendline.</t>
+  </si>
+  <si>
+    <t>https://library.tradingtechnologies.com/trade/chrt-ti-linear-regression-forecast.html</t>
+  </si>
+  <si>
+    <t> This linear regression intercept indicator plots the intercept for the trendline for each data point.</t>
+  </si>
+  <si>
+    <t>The slope indicator measures the rise-over-run of a linear regression, which is the line of best fit for a price series. Fluctuating above and below zero, the Slope indicator best resembles a momentum oscillator without boundaries. It is not well suited for overbought/oversold levels, but can measure the direction and strength of a trend.</t>
+  </si>
+  <si>
+    <t>https://school.stockcharts.com/doku.php?id=technical_indicators:slope</t>
+  </si>
+  <si>
+    <t>The Lowest Low Value indicator simply returns the lowest low price over a user defined n-periods.</t>
+  </si>
+  <si>
+    <t>https://library.tradingtechnologies.com/trade/chrt-ti-lowest-low-value.html</t>
+  </si>
+  <si>
+    <t>Calculation of the NVI depends on how volume for a single day compares with the previous day’s trading volume. NVI will only change when volume has decreased from one day to the next. Thus, if current volume is higher, there is no change. The Positive and Negative Volume Indexes are trendlines that can help an investor to follow how a security’s price is changing with affects from volume. </t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/n/nvi.asp</t>
+  </si>
+  <si>
+    <t>On-balance volume provides a running total of an asset's trading volume and indicates whether this volume is flowing in or out of a given security or currency pair. The OBV is a cumulative total of volume (positive and negative).</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/o/onbalancevolume.asp</t>
+  </si>
+  <si>
+    <t>used to determine the price direction of an asset, as well as draw attention to when the price direction is changing. the indicator appears as a series of dots placed either above or below the price bars. A dot below the price is deemed to be a bullish signal.</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/trading/introduction-to-parabolic-sar/</t>
+  </si>
+  <si>
+    <t>Know Sure Thing, or KST, is a momentum oscillator, Know Sure Thing is calculated by taking the simple moving average (SMA) or four different rate-of-change (ROC) periods, adding them together to come up with the KST, and creating a signal line by taking the 9-period SMA of the KST.</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/k/know-sure-thing-kst.asp</t>
+  </si>
+  <si>
+    <r>
+      <t>The prime function of the Special K then is to identify primary trend turning points.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> Special K is a momentum indicator that combines short-, intermediate- and long-term velocity into one complete series, thereby giving us true summed cyclicality</t>
+    </r>
+  </si>
+  <si>
+    <t>https://school.stockcharts.com/doku.php?id=technical_indicators:pring_s_special_k</t>
+  </si>
+  <si>
+    <r>
+      <t>Psychological Line (PSY) is an oscillator-type indicator that compares the number of the rising periods to the total number of periods. In other words, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>it indicates the percentage of bars that close above the previous bar over the course of a given time period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://blog.iqoption.com/en/psychological-line-indicator-trading-strategy-tips/</t>
+  </si>
+  <si>
+    <t>The relative strength index (RSI) is a momentum indicator that measures the magnitude of recent price changes to evaluate overbought or oversold conditions in the price of a stock or other asset. The RSI is displayed as an oscillator (a line graph that moves between two extremes) and can have a reading from 0 to 100.</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/r/rsi.asp</t>
+  </si>
+  <si>
+    <r>
+      <t>The channel created by the bands can provide traders with ideas on when to buy or sell. During an overall </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uptrend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, buying near the lower band and selling near the top band is favorable, for example. STARC bands can provide insight for both </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ranging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and trending markets.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/s/starc.asp</t>
+  </si>
+  <si>
+    <t>Schaff Trend Cycle is a charting indicator used to help spot buy and sell points in the forex market. Compared to the popular MACD indicator, STC will react faster to changing market conditions. A drawback to STC is that it can stay in overbought or oversold territory for long stretches of time.</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/articles/forex/10/schaff-trend-cycle-indicator.asp</t>
+  </si>
+  <si>
+    <t>The Trade Volume Index indicator is similar to the on-balance volume indicator. It may also be considered in comparison to other volume indicators such as volume weighted average price (VWAP), the Positive and Negative Volume Indexes, the Intraday Intensity Index and Chaiken’s Money Flow. The Trade Volume Index (TVI) is a technical indicator that moves significantly in the direction of a price trend when substantial price changes and volume occur simultaneously.</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/t/tradevolumeindex.asp</t>
+  </si>
+  <si>
+    <t>Trend Intensity Index (TII) is used to measure the strength of a trend of a sock, ETF, index or any other tradable security. The TII indicator uses RSI principles of calculation applied to the closing price deviations instead of the closing prices. In technical analysis Trend Intensity index is used to generate trading signals on assumption that the stronger current trend is, the more likely analyzed stock (index, ETF, etc.) will continue moving in the direction of the current trend.</t>
+  </si>
+  <si>
+    <r>
+      <t>A stock's range is the difference between the high and low price on any given day. It reveals information about how </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>atile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> a stock is. Large ranges indicate high volatility and small ranges indicate low volatility.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/articles/trading/08/average-true-range.asp</t>
+  </si>
+  <si>
+    <r>
+      <t>The Ultimate Oscillator is a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>technical indicator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> that was developed by Larry Williams in 1976 to measure the price momentum of an asset across multiple timeframes. By using the weighted average of three different timeframes the indicator has less </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>volatility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and fewer trade signals compared to other oscillators that rely on a single timeframe.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/u/ultimateoscillator.asp</t>
+  </si>
+  <si>
+    <r>
+      <t>The volume weighted average price (VWAP) is a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>benchmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> used by traders that gives the average price a security has traded at throughout the day, based on both </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF2C40D0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>volume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and price. It is important because it provides traders with insight into both the trend and value of a security.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/v/vwap.asp</t>
+  </si>
+  <si>
+    <t>A vortex indicator (VI) is an indicator composed of two lines - an uptrend line (VI+) and a downtrend line (VI-). These lines are typically colored green and red respectively. A vortex indicator is used to spot trend reversals and confirm current trends.</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/v/vortex-indicator-vi.asp</t>
+  </si>
+  <si>
+    <t>Weighted Close is a substitute of a stock's price for better evaluation of a price trend on the sock charts. Weighted Close is calculated as average of High, Low and Weighted Closing prices.</t>
+  </si>
+  <si>
+    <t>https://www.marketvolume.com/technicalanalysis/weightedclose.asp</t>
+  </si>
+  <si>
+    <t>The Williams Percent Range, also called Williams %R, is a momentum indicator that shows you where the last closing price is relative to the highest and lowest prices of a given time period. As an oscillator, Williams %R tells you when a currency pair might be “overbought” or “oversold.”</t>
+  </si>
+  <si>
+    <t>https://www.babypips.com/learn/forex/williams-r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -475,13 +1017,107 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF2C40D0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Fidelity Sans"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -497,14 +1133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +1154,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -842,7 +1502,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -852,975 +1512,975 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04CC69A-DE82-0D4F-988D-75368E746C4C}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="25.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="6" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="4"/>
     <col min="8" max="9" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>COUNTIF($B:$B,D2)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F4" si="0">COUNTIF($B:$B,D3)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="B12" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="B15" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="B17" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="B18" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="B19" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="B21" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="B22" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="B25" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="B27" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="B28" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="B29" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="B30" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="B31" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="B32" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="B33" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="B34" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="B35" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="B36" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="B37" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="B38" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="B39" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="B40" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="B41" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="B42" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="B43" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="B44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="B45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="B46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="B47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="B48" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="B49" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="B50" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="B51" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="B52" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="B53" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="B54" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="B55" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="B56" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="B57" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="B58" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="B59" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="B60" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="B61" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="B62" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="B63" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="B64" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="B65" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="B66" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="B67" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="B68" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+      <c r="B69" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="B70" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+      <c r="B71" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="B72" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+      <c r="B73" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+      <c r="B74" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+      <c r="B75" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="B76" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="B77" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="B78" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="B79" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="B80" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="B81" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="B82" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+      <c r="B83" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="B84" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+      <c r="B85" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="B86" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+      <c r="B87" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+      <c r="B88" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
+      <c r="B89" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+      <c r="B90" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
+      <c r="B91" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="B92" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+      <c r="B93" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+      <c r="B94" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
+      <c r="B95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
+      <c r="B96" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+      <c r="B97" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
+      <c r="B98" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
+      <c r="B99" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="9" t="s">
+      <c r="B100" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
+      <c r="B101" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
+      <c r="B102" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+      <c r="B103" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
+      <c r="B104" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
+      <c r="B105" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
+      <c r="B106" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
+      <c r="B107" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
+      <c r="B108" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
+      <c r="B109" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="9" t="s">
+      <c r="B110" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
+      <c r="B111" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B112">
+  <sortState ref="A2:B112">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,7 +2495,7 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1847,7 +2507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1855,36 +2515,457 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364DD11A-90DE-054D-9738-15F07178DAD1}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="10" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="10" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="19" customFormat="1">
+      <c r="A12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="19" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="19" customFormat="1">
+      <c r="A31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="19" customFormat="1">
+      <c r="A32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{73EB669D-648D-4907-B0FF-8023043F9087}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{53B1E3FF-7903-42EA-9BAD-4850C982AA40}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{AFEB242A-FB99-4A04-815C-FC06B55C9861}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{55988F87-62A1-4581-A57E-3735583E1E74}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{72D7B534-C24D-4793-87EF-7FC045DFA3F1}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{07F175DE-497E-4C2A-B644-2F5080FAE0E8}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{6342E1FA-6452-46A0-80C5-E4B008309158}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{B7D1FC1B-2CC8-459B-AEEF-86537F198B62}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{C17C0867-EA4A-4968-B777-236866B5BB75}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{25F2399D-6608-4995-A195-F41F4A3A3361}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{29DF91DC-900E-4301-8BC3-092173346626}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{F32661C9-CC03-4099-9A31-98EB6E471D37}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{594C2F67-7C98-40D0-81AB-A2663D628DBD}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{EFB69DD1-99E7-47E1-B054-633036BDFE5F}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{50C0B2E9-5887-4279-B0BD-7B71D1A95CA9}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{FA6781A8-E466-40E7-86F6-23FD0EA0558B}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{F3BBD6C1-1494-44AC-A6E1-BA27D2558008}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{2D49FAFA-C0C8-4867-9494-68CF84A2EEA8}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{9778D84D-E988-4C3E-BC73-134D3DE29797}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{762F5B07-8AAA-4A4D-8F02-9B993D8B81DB}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{4EE18161-918C-4BB7-9228-AE94552A0742}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{C675284D-5BB9-4A13-AF0E-DC95540B0860}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{A5A07315-43B8-4036-B80C-F34C2D80E650}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{4DD84E2E-DACB-490E-8147-8B15C22DFF3E}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{A516A6E5-FCD9-4EBE-B83C-F8D8EE0BFBC2}"/>
+    <hyperlink ref="C33" r:id="rId26" xr:uid="{61ACD590-2BCA-416F-B026-A5468364788E}"/>
+    <hyperlink ref="C34" r:id="rId27" xr:uid="{68AF2B2C-878B-4B0F-8162-841DF8E41B60}"/>
+    <hyperlink ref="C35" r:id="rId28" xr:uid="{B63ABE28-E42D-4998-8776-1D0690013A75}"/>
+    <hyperlink ref="C36" r:id="rId29" xr:uid="{5458F4B4-F4FA-4F6B-9A2A-5B9DEFB0DAA1}"/>
+    <hyperlink ref="C37" r:id="rId30" xr:uid="{DF79DC84-02E2-4EAC-B532-44071CA66850}"/>
+    <hyperlink ref="C38" r:id="rId31" xr:uid="{CF3019AA-4E12-4C41-AABD-8A0B267C5A95}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -1893,23 +2974,23 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18.5">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1917,7 +2998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +3006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +3014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>

--- a/Task1-feature_generation.xlsx
+++ b/Task1-feature_generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somani4\Documents\GitHub\ECE498_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF731B-6C94-41B1-A232-0A5A6F8C06B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67745589-6687-4C32-B3FF-42674C4BC6A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="4" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="199">
   <si>
     <t>ADX/DMS</t>
   </si>
@@ -425,15 +425,6 @@
   </si>
   <si>
     <t>Feature</t>
-  </si>
-  <si>
-    <t>number of columns</t>
-  </si>
-  <si>
-    <t>possible columns</t>
-  </si>
-  <si>
-    <t>Time frequency</t>
   </si>
   <si>
     <t>Thoughts and Info</t>
@@ -978,14 +969,17 @@
     <t>The Williams Percent Range, also called Williams %R, is a momentum indicator that shows you where the last closing price is relative to the highest and lowest prices of a given time period. As an oscillator, Williams %R tells you when a currency pair might be “overbought” or “oversold.”</t>
   </si>
   <si>
-    <t>https://www.babypips.com/learn/forex/williams-r</t>
+    <t>https://www.tradingview.com/script/Y06JMe7p-High-Low-Bands-Strategy/</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/w/williamsr.asp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1099,6 +1093,14 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1120,7 +1122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1128,12 +1130,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1154,9 +1201,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1181,6 +1225,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2517,455 +2571,454 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364DD11A-90DE-054D-9738-15F07178DAD1}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="28" customFormat="1" ht="16" thickBot="1">
+      <c r="A1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>135</v>
+      <c r="B1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>142</v>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>152</v>
+      <c r="B10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="19" customFormat="1">
+      <c r="C11" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>157</v>
+      <c r="B13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>158</v>
+      <c r="B14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>160</v>
+      <c r="B15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="20" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>169</v>
+      <c r="B21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>181</v>
+      <c r="B28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="18" customFormat="1">
+      <c r="A30" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="19" customFormat="1">
-      <c r="A30" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="19" customFormat="1">
+      <c r="C30" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="18" customFormat="1">
       <c r="A31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="19" customFormat="1">
+      <c r="B31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="18" customFormat="1">
       <c r="A32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>188</v>
+      <c r="C32" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>192</v>
+      <c r="C34" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>196</v>
+      <c r="C36" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>198</v>
+      <c r="B37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>200</v>
+      <c r="B38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{73EB669D-648D-4907-B0FF-8023043F9087}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{53B1E3FF-7903-42EA-9BAD-4850C982AA40}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{AFEB242A-FB99-4A04-815C-FC06B55C9861}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{55988F87-62A1-4581-A57E-3735583E1E74}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{72D7B534-C24D-4793-87EF-7FC045DFA3F1}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{07F175DE-497E-4C2A-B644-2F5080FAE0E8}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{6342E1FA-6452-46A0-80C5-E4B008309158}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{B7D1FC1B-2CC8-459B-AEEF-86537F198B62}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{C17C0867-EA4A-4968-B777-236866B5BB75}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{25F2399D-6608-4995-A195-F41F4A3A3361}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{29DF91DC-900E-4301-8BC3-092173346626}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{F32661C9-CC03-4099-9A31-98EB6E471D37}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{594C2F67-7C98-40D0-81AB-A2663D628DBD}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{EFB69DD1-99E7-47E1-B054-633036BDFE5F}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{50C0B2E9-5887-4279-B0BD-7B71D1A95CA9}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{FA6781A8-E466-40E7-86F6-23FD0EA0558B}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{F3BBD6C1-1494-44AC-A6E1-BA27D2558008}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{2D49FAFA-C0C8-4867-9494-68CF84A2EEA8}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{9778D84D-E988-4C3E-BC73-134D3DE29797}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{762F5B07-8AAA-4A4D-8F02-9B993D8B81DB}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{4EE18161-918C-4BB7-9228-AE94552A0742}"/>
-    <hyperlink ref="C28" r:id="rId22" xr:uid="{C675284D-5BB9-4A13-AF0E-DC95540B0860}"/>
-    <hyperlink ref="C29" r:id="rId23" xr:uid="{A5A07315-43B8-4036-B80C-F34C2D80E650}"/>
-    <hyperlink ref="C30" r:id="rId24" xr:uid="{4DD84E2E-DACB-490E-8147-8B15C22DFF3E}"/>
-    <hyperlink ref="C31" r:id="rId25" xr:uid="{A516A6E5-FCD9-4EBE-B83C-F8D8EE0BFBC2}"/>
-    <hyperlink ref="C33" r:id="rId26" xr:uid="{61ACD590-2BCA-416F-B026-A5468364788E}"/>
-    <hyperlink ref="C34" r:id="rId27" xr:uid="{68AF2B2C-878B-4B0F-8162-841DF8E41B60}"/>
-    <hyperlink ref="C35" r:id="rId28" xr:uid="{B63ABE28-E42D-4998-8776-1D0690013A75}"/>
-    <hyperlink ref="C36" r:id="rId29" xr:uid="{5458F4B4-F4FA-4F6B-9A2A-5B9DEFB0DAA1}"/>
-    <hyperlink ref="C37" r:id="rId30" xr:uid="{DF79DC84-02E2-4EAC-B532-44071CA66850}"/>
-    <hyperlink ref="C38" r:id="rId31" xr:uid="{CF3019AA-4E12-4C41-AABD-8A0B267C5A95}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{73EB669D-648D-4907-B0FF-8023043F9087}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{53B1E3FF-7903-42EA-9BAD-4850C982AA40}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{AFEB242A-FB99-4A04-815C-FC06B55C9861}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{55988F87-62A1-4581-A57E-3735583E1E74}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{72D7B534-C24D-4793-87EF-7FC045DFA3F1}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{07F175DE-497E-4C2A-B644-2F5080FAE0E8}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{6342E1FA-6452-46A0-80C5-E4B008309158}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{B7D1FC1B-2CC8-459B-AEEF-86537F198B62}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{C17C0867-EA4A-4968-B777-236866B5BB75}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{25F2399D-6608-4995-A195-F41F4A3A3361}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{29DF91DC-900E-4301-8BC3-092173346626}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{F32661C9-CC03-4099-9A31-98EB6E471D37}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{594C2F67-7C98-40D0-81AB-A2663D628DBD}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{EFB69DD1-99E7-47E1-B054-633036BDFE5F}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{50C0B2E9-5887-4279-B0BD-7B71D1A95CA9}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{FA6781A8-E466-40E7-86F6-23FD0EA0558B}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{F3BBD6C1-1494-44AC-A6E1-BA27D2558008}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{2D49FAFA-C0C8-4867-9494-68CF84A2EEA8}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{9778D84D-E988-4C3E-BC73-134D3DE29797}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{762F5B07-8AAA-4A4D-8F02-9B993D8B81DB}"/>
+    <hyperlink ref="B27" r:id="rId21" xr:uid="{4EE18161-918C-4BB7-9228-AE94552A0742}"/>
+    <hyperlink ref="B28" r:id="rId22" xr:uid="{C675284D-5BB9-4A13-AF0E-DC95540B0860}"/>
+    <hyperlink ref="B29" r:id="rId23" xr:uid="{A5A07315-43B8-4036-B80C-F34C2D80E650}"/>
+    <hyperlink ref="B30" r:id="rId24" xr:uid="{4DD84E2E-DACB-490E-8147-8B15C22DFF3E}"/>
+    <hyperlink ref="B31" r:id="rId25" xr:uid="{A516A6E5-FCD9-4EBE-B83C-F8D8EE0BFBC2}"/>
+    <hyperlink ref="B33" r:id="rId26" xr:uid="{61ACD590-2BCA-416F-B026-A5468364788E}"/>
+    <hyperlink ref="B34" r:id="rId27" xr:uid="{68AF2B2C-878B-4B0F-8162-841DF8E41B60}"/>
+    <hyperlink ref="B35" r:id="rId28" xr:uid="{B63ABE28-E42D-4998-8776-1D0690013A75}"/>
+    <hyperlink ref="B36" r:id="rId29" xr:uid="{5458F4B4-F4FA-4F6B-9A2A-5B9DEFB0DAA1}"/>
+    <hyperlink ref="B37" r:id="rId30" xr:uid="{DF79DC84-02E2-4EAC-B532-44071CA66850}"/>
+    <hyperlink ref="B14" r:id="rId31" xr:uid="{4B08B1BD-CA11-4E0D-A128-A55EB613DE9E}"/>
+    <hyperlink ref="B38" r:id="rId32" xr:uid="{4211DD4A-9111-4DBD-8143-821E3882B6ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -2984,10 +3037,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">

--- a/Task1-feature_generation.xlsx
+++ b/Task1-feature_generation.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somani4\Documents\GitHub\ECE498_Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gowthamkuntumalla/Documents/GitHub/ECE498_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67745589-6687-4C32-B3FF-42674C4BC6A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A28DE-9C69-F947-A5AB-9D3DDAFC9260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="4" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="1" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
-    <sheet name="All Features" sheetId="1" r:id="rId2"/>
-    <sheet name="Gowtham" sheetId="3" r:id="rId3"/>
-    <sheet name="Manan" sheetId="4" r:id="rId4"/>
-    <sheet name="Akhilesh" sheetId="5" r:id="rId5"/>
-    <sheet name="Research" sheetId="2" r:id="rId6"/>
+    <sheet name="All Features" sheetId="1" r:id="rId1"/>
+    <sheet name="Gowtham" sheetId="3" r:id="rId2"/>
+    <sheet name="Manan" sheetId="4" r:id="rId3"/>
+    <sheet name="Akhilesh" sheetId="5" r:id="rId4"/>
+    <sheet name="Research" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="208">
   <si>
     <t>ADX/DMS</t>
   </si>
@@ -974,12 +976,39 @@
   <si>
     <t>https://www.investopedia.com/terms/w/williamsr.asp</t>
   </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Move Forward ?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Four level EMA based. Widely used for monthly trades. It seems to work. I visually back tested on Kotak Mahindra Bank Stock</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>MACD(a,b,c)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>a = 12 EMA (fast), b = 26 EMA (slow), c = 9 (EMA of macd), numbers in months</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1101,6 +1130,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1180,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1225,9 +1262,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1235,6 +1269,12 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1549,30 +1589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38065D1A-5BE0-C042-B8B9-E73930FECF49}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04CC69A-DE82-0D4F-988D-75368E746C4C}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="6" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="4"/>
     <col min="8" max="9" width="25.5" bestFit="1" customWidth="1"/>
@@ -2534,62 +2560,282 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B112">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B112">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE02222-1276-F842-9642-9CFF961D02CE}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="17" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE02222-1276-F842-9642-9CFF961D02CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED8CE75-3946-A240-A26D-9D0977C6B6F8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED8CE75-3946-A240-A26D-9D0977C6B6F8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364DD11A-90DE-054D-9738-15F07178DAD1}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" ht="16" thickBot="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" s="27" customFormat="1" ht="17" thickBot="1">
+      <c r="A1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2832,7 +3078,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3022,7 +3268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3677FB72-1481-D949-A878-AB80F6201CED}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3030,17 +3276,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">

--- a/Task1-feature_generation.xlsx
+++ b/Task1-feature_generation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manan R Mehta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gowthamkuntumalla/Documents/GitHub/ECE498_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C22EA25-E998-4162-85AA-7326BC2C2762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCA675-A58C-9D49-B6A8-1D91B6A14FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="1" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
   </bookViews>
   <sheets>
     <sheet name="All Features" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="308">
   <si>
     <t>ADX/DMS</t>
   </si>
@@ -978,18 +980,12 @@
     <t>Features</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Move Forward ?</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Four level EMA based. Widely used for monthly trades. It seems to work. I visually back tested on Kotak Mahindra Bank Stock</t>
-  </si>
-  <si>
     <t>Math</t>
   </si>
   <si>
@@ -1147,13 +1143,172 @@
   </si>
   <si>
     <t>(Just a method of rep[resentation of volume in a chart)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Avg true range is a volatilit indicator. Bollinger bands are better</t>
+  </si>
+  <si>
+    <t>Assists ATR bands. Primarily. A trading strategy</t>
+  </si>
+  <si>
+    <t>useful visual tool for trend recognition and trade entry timing, but it has limited usefulness during choppy and trendless periods. Use MACD instead</t>
+  </si>
+  <si>
+    <t>20 period simple moving avg and boundary two standard dev (2sigma) lines above and below</t>
+  </si>
+  <si>
+    <t>use percent bandwidth below</t>
+  </si>
+  <si>
+    <t>derived from BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( (Upper Band - Lower Band) / Middle Band ) * 100</t>
+  </si>
+  <si>
+    <t>Range bound indicator for trading not good for price trendy markets.</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/terms/c/coppockcurve.asp</t>
+  </si>
+  <si>
+    <t>Definitely, can be pairwise</t>
+  </si>
+  <si>
+    <t>Long term (10months). ETFs. primarily to recognize major bottoms in the stock market</t>
+  </si>
+  <si>
+    <t>Just like other momentum indicators, the disparity index indicator is most suited when used along with other tools when a trader is trying to spot possible reversals or confirm a trend.</t>
+  </si>
+  <si>
+    <t>Tradingview</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/script/MOwx4nuh-Fractal-Chaos-Oscillator-Strategy/</t>
+  </si>
+  <si>
+    <t>its value moves between -1.000 and 1.000. Intraday trading</t>
+  </si>
+  <si>
+    <t>FC Oscillator and this are used in conjuction. Also similar to Bollinger Bands</t>
+  </si>
+  <si>
+    <t>More for Options trading. HV is also used to gage a stocks potential for moneymaking</t>
+  </si>
+  <si>
+    <t>Primarily for intraday.</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>(High-Low)/Volume</t>
+  </si>
+  <si>
+    <t>a measure of market reaction to new volume. Be aware of the result. Pretty simple.  Mostly done daily basis</t>
+  </si>
+  <si>
+    <t>Used in commodities trading</t>
+  </si>
+  <si>
+    <t>(High + Low ) / 2. Mostly for periodic (monthly) trading</t>
+  </si>
+  <si>
+    <t>identifies when the price is moving upward or downward and how strongly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (CP / CPn) * 100 ; current closing price (CP) and a closing price "n" periods ago (CPn). ** We decide n</t>
+  </si>
+  <si>
+    <t>Traders often used with RSI. Somewhat different compared to Moving avgs as this indicator takes into account high low ranges in a particular day. Provides supports and resistances</t>
+  </si>
+  <si>
+    <t>The general belief is that high volume days are associated with the crowd. PVI is tracking the "not-smart-money". Used in conjunction with NVI. and fundamental analysis if looking at longer-term trading opportunities.</t>
+  </si>
+  <si>
+    <t>More for positional trading</t>
+  </si>
+  <si>
+    <t>For trading Pretty abstract</t>
+  </si>
+  <si>
+    <t>Similar to prime number oscillator</t>
+  </si>
+  <si>
+    <t>Use it! Pretty simple but other indicators may hold more information. Also a measurement of volatility</t>
+  </si>
+  <si>
+    <t>Trading indicator, Momentum</t>
+  </si>
+  <si>
+    <t>Similar to Stochastic Oscillator, Day traders use this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar to RSI but uses standard devs. </t>
+  </si>
+  <si>
+    <t>Similar to RSI</t>
+  </si>
+  <si>
+    <t>relative volatility (Index)</t>
+  </si>
+  <si>
+    <t>https://tradingqna.com/</t>
+  </si>
+  <si>
+    <t>Zeroda trading QnA</t>
+  </si>
+  <si>
+    <t>Not really clear.</t>
+  </si>
+  <si>
+    <t>Like the stochastic oscillator, the SMI is primarily used by traders or analysts to indicate overbought or oversold conditions in a market. It is used with volume indicators to show if the momentum carries significant selling or buying pressure.</t>
+  </si>
+  <si>
+    <t>Stochastics is used to show when a stock has moved into an overbought or oversold position. Use in conjunction with RSI. For a long-term view of a sector, the chartist would start by looking at 14 months of the entire industry's trading range.</t>
+  </si>
+  <si>
+    <t>(H+L+C)/3</t>
+  </si>
+  <si>
+    <t>Standardize' or 'Nomralize' the indicators to compare with other securities</t>
+  </si>
+  <si>
+    <t>Simple avg og high,low and close. This can be used instead of close price in many of the other indicators</t>
+  </si>
+  <si>
+    <t>Interesting index. Only lools at downward volatility</t>
+  </si>
+  <si>
+    <t>Just a display of mean, sd</t>
+  </si>
+  <si>
+    <t>Mostly for trading</t>
+  </si>
+  <si>
+    <t>A momentum investor might use the indicator to stay in a trade until the Zig Zag line confirms in the opposite direction. For example, if the investor holds a long position, they would not sell until the Zig Zag line turns downward.</t>
+  </si>
+  <si>
+    <t>that pivot points are predominantly used by day traders. Supports and resistances.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1276,14 +1431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
@@ -1293,6 +1440,37 @@
     <font>
       <sz val="12"/>
       <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1403,7 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1455,12 +1633,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1476,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,7 +1657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,12 +1666,197 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1815,11 +2172,11 @@
       <selection activeCell="A39" sqref="A39:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="6" customWidth="1"/>
-    <col min="4" max="6" width="10.796875" style="4"/>
+    <col min="4" max="6" width="10.83203125" style="4"/>
     <col min="8" max="9" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2788,234 +3145,554 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE02222-1276-F842-9642-9CFF961D02CE}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="4" width="14.69921875" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="45" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="33" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" s="48" customFormat="1" ht="25">
+      <c r="A1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="44">
+      <c r="A2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" ht="22" customHeight="1">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" ht="66">
+      <c r="A4" s="46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" ht="44">
+      <c r="A5" s="46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="22">
+      <c r="A6" s="46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="66">
+      <c r="A7" s="46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="44">
+      <c r="A8" s="46" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="44">
+      <c r="A9" s="46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22">
+      <c r="A10" s="46" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="88">
+      <c r="A11" s="46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="44">
+      <c r="A12" s="46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="52">
+      <c r="A13" s="46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="44">
+      <c r="A14" s="46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="88">
+      <c r="A15" s="46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="44">
+      <c r="A16" s="46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="44">
+      <c r="A17" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="D17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="45" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" ht="66">
+      <c r="A18" s="46" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="B18" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22">
+      <c r="A19" s="46" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="B19" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="44">
+      <c r="A20" s="46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="88">
+      <c r="A21" s="46" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="44">
+      <c r="A22" s="46" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="110">
+      <c r="A23" s="46" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="22">
+      <c r="A24" s="46" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="B24" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22">
+      <c r="A25" s="46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="B25" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22">
+      <c r="A26" s="46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="B26" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22">
+      <c r="A27" s="46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
+      <c r="B27" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="44">
+      <c r="A28" s="46" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="B28" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="22">
+      <c r="A29" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="44">
+      <c r="A30" s="46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="66">
+      <c r="A31" s="46" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="110">
+      <c r="A32" s="46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8" t="s">
+      <c r="B32" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="110">
+      <c r="A33" s="46" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="66">
+      <c r="A34" s="46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8" t="s">
+      <c r="B34" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="44">
+      <c r="A35" s="46" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
+      <c r="B35" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="22">
+      <c r="A36" s="46" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="8" t="s">
+      <c r="B36" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="22">
+      <c r="A37" s="46" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="110">
+      <c r="A38" s="46" t="s">
         <v>119</v>
       </c>
+      <c r="B38" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:J4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B8 B10:B24 B26:B1048576 C25">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Maybe">
+      <formula>NOT(ISERROR(SEARCH("Maybe",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G2 G5:G1048576 H2:I2">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Maybe">
+      <formula>NOT(ISERROR(SEARCH("Maybe",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Maybe">
+      <formula>NOT(ISERROR(SEARCH("Maybe",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Maybe">
+      <formula>NOT(ISERROR(SEARCH("Maybe",C26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Maybe">
+      <formula>NOT(ISERROR(SEARCH("Maybe",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{A9F6FFCB-D081-9346-829A-44AAA2EAB055}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{2EF3897E-5BBF-9949-9A18-8A24F1ED1979}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3024,440 +3701,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED8CE75-3946-A240-A26D-9D0977C6B6F8}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="42.69921875" customWidth="1"/>
-    <col min="3" max="3" width="29.296875" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="32">
+        <v>5</v>
+      </c>
+      <c r="F1" s="33">
+        <v>3</v>
+      </c>
+      <c r="G1" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="119">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="36">
-        <v>5</v>
-      </c>
-      <c r="F1" s="37">
-        <v>3</v>
-      </c>
-      <c r="G1" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="124.8">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" ht="119">
+      <c r="A3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" ht="109.2">
-      <c r="A3" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="43" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="51">
+      <c r="A4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C4" s="37" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="46.8">
-      <c r="A4" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="39" t="s">
+    <row r="5" spans="1:7" ht="68">
+      <c r="A5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C5" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51">
+      <c r="A6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="62.4">
-      <c r="A5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.8">
-      <c r="A6" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="39" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="51">
+      <c r="A7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C7" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51">
+      <c r="A8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="46.8">
-      <c r="A7" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="39" t="s">
+      <c r="C8" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="102">
+      <c r="A9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="46.8">
-      <c r="A8" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="39" t="s">
+      <c r="C9" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="93.6">
-      <c r="A9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="39" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="51">
+      <c r="A10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C10" s="37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="46.8">
-      <c r="A10" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="39" t="s">
+    <row r="11" spans="1:7" ht="34">
+      <c r="A11" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C11" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51">
+      <c r="A12" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.2">
-      <c r="A11" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="39" t="s">
+      <c r="C12" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34">
+      <c r="A13" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="46.8">
-      <c r="A12" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="39" t="s">
+      <c r="C13" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34">
+      <c r="A14" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.2">
-      <c r="A13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="39" t="s">
+      <c r="C14" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="68">
+      <c r="A15" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="31.2">
-      <c r="A14" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="39" t="s">
+      <c r="C15" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="51">
+      <c r="A16" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="62.4">
-      <c r="A15" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="39" t="s">
+      <c r="C16" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="46.8">
-      <c r="A16" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="39" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="51">
+      <c r="A17" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C17" s="37" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="46.8">
-      <c r="A17" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="39" t="s">
+    <row r="18" spans="1:3" ht="34">
+      <c r="A18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C18" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="85">
+      <c r="A19" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="31.2">
-      <c r="A18" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="39" t="s">
+      <c r="C19" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="78">
-      <c r="A19" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="39" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="51">
+      <c r="A20" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="68">
+      <c r="A21" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C21" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="85">
+      <c r="A22" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="46.8">
-      <c r="A20" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="46.8">
-      <c r="A21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="39" t="s">
+      <c r="C22" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="51">
+      <c r="A23" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="78">
-      <c r="A22" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="39" t="s">
+      <c r="C23" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="102">
+      <c r="A24" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="46.8">
-      <c r="A23" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="C24" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34">
+      <c r="A25" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="93.6">
-      <c r="A24" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="39" t="s">
+      <c r="C25" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="51">
+      <c r="A26" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="46.8">
-      <c r="A25" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="39" t="s">
+      <c r="C26" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="46.8">
-      <c r="A26" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="39" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="34">
+      <c r="A27" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="136">
+      <c r="A28" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C28" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="51">
+      <c r="A29" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="31.2">
-      <c r="A27" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="124.8">
-      <c r="A28" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="39" t="s">
+      <c r="C29" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="85">
+      <c r="A30" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="46.8">
-      <c r="A29" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="39" t="s">
+      <c r="C30" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="78">
-      <c r="A30" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="39" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="102">
+      <c r="A31" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C31" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="34">
+      <c r="A32" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="93.6">
-      <c r="A31" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="39" t="s">
+      <c r="C32" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.2">
-      <c r="A32" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="39" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="51">
+      <c r="A33" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C33" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="85">
+      <c r="A34" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="46.8">
-      <c r="A33" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="39" t="s">
+      <c r="C34" s="40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="34">
+      <c r="A35" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="78">
-      <c r="A34" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="39" t="s">
+      <c r="C35" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34">
+      <c r="A36" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="31.2">
-      <c r="A35" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="39" t="s">
+      <c r="C36" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="51">
+      <c r="A37" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="31.2">
-      <c r="A36" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="39" t="s">
+      <c r="C37" s="40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="34">
+      <c r="A38" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="46.8">
-      <c r="A37" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="31.2">
-      <c r="A38" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>218</v>
+      <c r="C38" s="41" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3469,18 +4148,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364DD11A-90DE-054D-9738-15F07178DAD1}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.19921875" customWidth="1"/>
-    <col min="3" max="3" width="70.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="27" customFormat="1" ht="16.2" thickBot="1">
+    <row r="1" spans="1:6" s="27" customFormat="1" ht="17" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>129</v>
       </c>
@@ -3922,23 +4601,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3677FB72-1481-D949-A878-AB80F6201CED}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="20.296875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" ht="19">
+      <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
@@ -3951,26 +4630,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3978,9 +4678,11 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{222659F7-6702-5945-855A-F81D6905B326}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{894D401F-AEA7-A742-AE7C-DF4233892CD0}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7603873F-6174-7549-91A1-9307B58377AD}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{222659F7-6702-5945-855A-F81D6905B326}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{894D401F-AEA7-A742-AE7C-DF4233892CD0}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{7603873F-6174-7549-91A1-9307B58377AD}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{D4E5D855-D123-2F44-8F79-3A2F61234256}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{5BEC2F9A-8648-1A46-B711-6769E86B05F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task1-feature_generation.xlsx
+++ b/Task1-feature_generation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somani4\Documents\GitHub\ECE498_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67745589-6687-4C32-B3FF-42674C4BC6A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76868A83-AB23-41D3-B1D5-4CE2F5544FDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" activeTab="4" xr2:uid="{6979EBDE-FDCA-4B42-918E-2C70D40B6D11}"/>
   </bookViews>
@@ -1095,14 +1095,13 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,6 +1117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,7 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1207,10 +1218,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1228,13 +1235,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2571,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364DD11A-90DE-054D-9738-15F07178DAD1}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2582,31 +2602,31 @@
     <col min="3" max="3" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" ht="16" thickBot="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="18.5" thickBot="1">
+      <c r="A1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" s="32" customFormat="1">
+      <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2618,7 +2638,7 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2630,7 +2650,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2641,7 +2661,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2652,7 +2672,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2663,7 +2683,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2674,7 +2694,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2685,7 +2705,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2696,26 +2716,26 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="18" customFormat="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" s="36" customFormat="1">
+      <c r="A12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2726,7 +2746,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2737,7 +2757,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2747,32 +2767,32 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" s="32" customFormat="1">
+      <c r="A16" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2783,7 +2803,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2794,7 +2814,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2804,24 +2824,24 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:3" s="32" customFormat="1">
+      <c r="A22" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="38" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2832,40 +2852,40 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2876,7 +2896,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2886,38 +2906,38 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="18" customFormat="1">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:3" s="16" customFormat="1">
+      <c r="A30" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="18" customFormat="1">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:3" s="16" customFormat="1">
+      <c r="A31" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="18" customFormat="1">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:3" s="16" customFormat="1">
+      <c r="A32" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2928,7 +2948,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2939,7 +2959,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="26" t="s">
         <v>108</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2950,7 +2970,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2961,7 +2981,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2972,7 +2992,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="26" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3037,10 +3057,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
